--- a/modelResult.xlsx
+++ b/modelResult.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\MultivariateRegression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9F3610-A75B-4DDE-BC6E-F7F3F75764BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484C4AF9-32B9-4A7A-9D24-6C34B840AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CE15CFB-29F1-4EED-86B0-B33767367CAE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0CE15CFB-29F1-4EED-86B0-B33767367CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>dataSet Version</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -108,6 +109,18 @@
   </si>
   <si>
     <t>Decision Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train MSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test MSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid MSE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +183,14 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -267,6 +286,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -276,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,28 +334,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8083F4-7807-4B35-96EB-386BD83B489D}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,8 +697,8 @@
     <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="11" width="12.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="17.375" style="5" customWidth="1"/>
+    <col min="9" max="11" width="12.125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -698,28 +752,28 @@
       <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="4">
         <v>11220.8050260854</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="4">
         <v>26.5403650946865</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="4">
         <v>50.373672196588402</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="4">
         <v>0.82340991251276396</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="8">
         <v>22554.469640636598</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="8">
         <v>40.020219152364596</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="8">
         <v>71.479457838257602</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="8">
         <v>0.50334264038910403</v>
       </c>
     </row>
@@ -736,16 +790,16 @@
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <v>42227.407390744702</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="4">
         <v>78.694116485697194</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="4">
         <v>98.134635800451406</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="4">
         <v>0.23198014851725199</v>
       </c>
       <c r="I3" s="9">
@@ -774,16 +828,16 @@
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <v>17744.0238450283</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>40.806171915332897</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <v>63.575741065627597</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="4">
         <v>0.67284340001549903</v>
       </c>
       <c r="I4" s="9">
@@ -812,16 +866,16 @@
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="5">
         <v>10932.6226888369</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="5">
         <v>23.794750820953801</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="5">
         <v>49.435374621138102</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="5">
         <v>0.85498916750195098</v>
       </c>
       <c r="I5" s="9">
@@ -850,10 +904,10 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -864,10 +918,10 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -878,10 +932,10 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -892,10 +946,10 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -906,10 +960,10 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
@@ -920,10 +974,10 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -934,10 +988,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -948,10 +1002,10 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
@@ -962,10 +1016,10 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -976,10 +1030,10 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -990,10 +1044,10 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -1004,10 +1058,10 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
@@ -1018,10 +1072,10 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -1032,10 +1086,10 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
@@ -1046,10 +1100,10 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
@@ -1060,10 +1114,10 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
@@ -1074,10 +1128,10 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
@@ -1088,10 +1142,10 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
@@ -1102,10 +1156,10 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
@@ -1116,10 +1170,10 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
@@ -1130,10 +1184,10 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
@@ -1144,10 +1198,10 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
@@ -1158,10 +1212,10 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
@@ -1172,10 +1226,10 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
@@ -1186,10 +1240,10 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
@@ -1200,10 +1254,10 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
@@ -1214,10 +1268,10 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
@@ -1228,10 +1282,279 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBF091-289E-4DFA-91E5-132EF87715B9}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="40.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9685</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9685</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3">
+        <v>9685</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9685</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9685</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/modelResult.xlsx
+++ b/modelResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\MultivariateRegression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484C4AF9-32B9-4A7A-9D24-6C34B840AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CEAA40-9F8F-435C-941A-34EBF1588338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0CE15CFB-29F1-4EED-86B0-B33767367CAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0CE15CFB-29F1-4EED-86B0-B33767367CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <t>dataSet Version</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -121,6 +121,50 @@
   </si>
   <si>
     <t>Valid MSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandardScaler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Support Vector Machine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandardScaler, RegressorChain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandardScaler, MultiOutputRegressor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinMaxScaler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinMaxScaler, MultiOutputRegressor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinMaxScaler, RegressorChain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>best</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAbsScaler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAbsScaler, MultiOutputRegressor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAbsScaler, RegressorChain</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +172,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="182" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +218,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -190,7 +254,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -300,15 +364,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -321,7 +444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,7 +487,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1296,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBF091-289E-4DFA-91E5-132EF87715B9}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1307,13 +1496,13 @@
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="40.25" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1332,219 +1521,501 @@
       <c r="F1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3">
-        <v>9685</v>
+        <v>11964</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="31">
+        <v>5.1725184999999998E-3</v>
+      </c>
+      <c r="F2" s="33">
+        <v>8.1965349999999996E-3</v>
+      </c>
+      <c r="G2" s="35">
+        <v>22296.402816004502</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3">
-        <v>9685</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="21">
+        <v>11964</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0.32657439999999999</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.54549974000000001</v>
+      </c>
+      <c r="G3" s="24">
+        <v>22383.927926400898</v>
+      </c>
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3">
-        <v>9685</v>
+        <v>11964</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="14">
+        <v>9.9521799999999997E-3</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1.5262583E-2</v>
+      </c>
+      <c r="G4" s="24">
+        <v>23032.4017129569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11964</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="14">
+        <v>6.2728514309733502E-3</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1.79807172140873E-2</v>
+      </c>
+      <c r="G5" s="23">
+        <v>30411.241400642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11964</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="31">
+        <v>3.2912924281752998E-3</v>
+      </c>
+      <c r="F6" s="31">
+        <v>9.4789996775099996E-3</v>
+      </c>
+      <c r="G6" s="23">
+        <v>30450.681569673401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="27">
+        <v>11964</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0.21282695962886899</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0.53248259036981405</v>
+      </c>
+      <c r="G7" s="29">
+        <v>30640.823163754001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="21">
+        <v>11964</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="33">
+        <v>2.8458098906740201E-3</v>
+      </c>
+      <c r="F8" s="31">
+        <v>1.1709544215670199E-2</v>
+      </c>
+      <c r="G8" s="17">
+        <v>38558.731395944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="21">
+        <v>11964</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="19">
+        <v>5.3962486116028597E-3</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2.3095377807985401E-2</v>
+      </c>
+      <c r="G9" s="15">
+        <v>38586.483804305397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3">
-        <v>9685</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B10" s="21">
+        <v>11964</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="D10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.18443464065832399</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.64137395212286197</v>
+      </c>
+      <c r="G10" s="36">
+        <v>38596.230703666799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="21">
+        <v>11964</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.74658270000000004</v>
+      </c>
+      <c r="F11" s="22">
+        <v>1.1032458999999999</v>
+      </c>
+      <c r="G11" s="36">
+        <v>53098.3565838586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
-        <v>9685</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="21">
+        <v>11964</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1.0570960000000001E-2</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1.2049193999999999E-2</v>
+      </c>
+      <c r="G12" s="23">
+        <v>53103.4783123292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27">
+        <v>11964</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1.9822302999999999E-2</v>
+      </c>
+      <c r="F13" s="28">
+        <v>2.1200706999999999E-2</v>
+      </c>
+      <c r="G13" s="29">
+        <v>53113.466347932299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21">
+        <v>11964</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.77969067534834302</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1.1493596411833999</v>
+      </c>
+      <c r="G14" s="17">
+        <v>62484.526506161703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="21">
+        <v>11964</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.78375289886160904</v>
+      </c>
+      <c r="F15" s="22">
+        <v>1.15194348754322</v>
+      </c>
+      <c r="G15" s="36">
+        <v>62484.808856981799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="21">
+        <v>11964</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1.13998144652704E-2</v>
+      </c>
+      <c r="F16" s="32">
+        <v>1.2965872816187799E-2</v>
+      </c>
+      <c r="G16" s="36">
+        <v>62485.424488272598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="21">
+        <v>11964</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="32">
+        <v>1.14600963614953E-2</v>
+      </c>
+      <c r="F17" s="32">
+        <v>1.30092636859517E-2</v>
+      </c>
+      <c r="G17" s="36">
+        <v>62485.717948557598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="21">
+        <v>11964</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="22">
+        <v>2.16105085663389E-2</v>
+      </c>
+      <c r="F18" s="22">
+        <v>2.3071685865134101E-2</v>
+      </c>
+      <c r="G18" s="23">
+        <v>62552.1366451418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="27">
+        <v>11964</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="28">
+        <v>2.1681548159559801E-2</v>
+      </c>
+      <c r="F19" s="28">
+        <v>2.3133775522522899E-2</v>
+      </c>
+      <c r="G19" s="29">
+        <v>62552.411214141903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1557,6 +2028,9 @@
       <c r="D33" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
+    <sortCondition ref="G1:G19"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/modelResult.xlsx
+++ b/modelResult.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\MultivariateRegression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CEAA40-9F8F-435C-941A-34EBF1588338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BD43F8-A43A-4629-8C5C-8C4318010AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0CE15CFB-29F1-4EED-86B0-B33767367CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
   <si>
     <t>dataSet Version</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,10 +153,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>best</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxAbsScaler</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,6 +162,10 @@
   </si>
   <si>
     <t>MaxAbsScaler, RegressorChain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -174,9 +175,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000000"/>
-    <numFmt numFmtId="182" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,17 +221,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -254,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -374,13 +367,103 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
@@ -389,49 +472,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,7 +494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,21 +540,18 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,46 +561,82 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,7 +957,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1485,16 +1568,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBF091-289E-4DFA-91E5-132EF87715B9}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="23.375" customWidth="1"/>
     <col min="4" max="4" width="32.875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
@@ -1502,7 +1585,480 @@
     <col min="7" max="7" width="16.875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="35">
+        <v>107664</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="36">
+        <v>0.75800749999999995</v>
+      </c>
+      <c r="F2" s="36">
+        <v>0.74227019999999999</v>
+      </c>
+      <c r="G2" s="37">
+        <v>166153.589280374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="20">
+        <v>107664</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="46">
+        <v>8.5135875691826304E-2</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.32636957411970702</v>
+      </c>
+      <c r="G3" s="24">
+        <v>47398.590473633398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="20">
+        <v>107664</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="40">
+        <v>0.12945092</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.18967912000000001</v>
+      </c>
+      <c r="G4" s="45">
+        <v>28369.086642119499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="20">
+        <v>107664</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0.82387553780705303</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0.79911616016550802</v>
+      </c>
+      <c r="G5" s="24">
+        <v>169964.25170592801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="20">
+        <v>107664</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="40">
+        <v>0.82175309366026095</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0.79730821967809296</v>
+      </c>
+      <c r="G6" s="24">
+        <v>169964.23661778701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="23">
+        <v>107664</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="41">
+        <v>9.43029091797222E-2</v>
+      </c>
+      <c r="F7" s="41">
+        <v>0.248258122184601</v>
+      </c>
+      <c r="G7" s="42">
+        <v>37710.789606547798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="35">
+        <v>107664</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="44">
+        <v>2.0597575E-2</v>
+      </c>
+      <c r="F8" s="44">
+        <v>2.0455444E-2</v>
+      </c>
+      <c r="G8" s="37">
+        <v>166152.23751217799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="20">
+        <v>107664</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="46">
+        <v>2.4478432525290202E-3</v>
+      </c>
+      <c r="F9" s="40">
+        <v>8.4917550735215605E-3</v>
+      </c>
+      <c r="G9" s="24">
+        <v>47700.698362039097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="20">
+        <v>107664</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="40">
+        <v>3.4074312999999999E-3</v>
+      </c>
+      <c r="F10" s="46">
+        <v>4.9292069999999997E-3</v>
+      </c>
+      <c r="G10" s="45">
+        <v>27820.342309071999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="20">
+        <v>107664</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="40">
+        <v>2.6430267651863602E-3</v>
+      </c>
+      <c r="F11" s="40">
+        <v>6.5287496557286202E-3</v>
+      </c>
+      <c r="G11" s="24">
+        <v>37494.890921371501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="20">
+        <v>107664</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="40">
+        <v>2.15125487910286E-2</v>
+      </c>
+      <c r="F12" s="40">
+        <v>2.13013497902582E-2</v>
+      </c>
+      <c r="G12" s="24">
+        <v>169987.468391481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="23">
+        <v>107664</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="41">
+        <v>2.1493549592458399E-2</v>
+      </c>
+      <c r="F13" s="41">
+        <v>2.1287739361033699E-2</v>
+      </c>
+      <c r="G13" s="42">
+        <v>169987.46876627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3">
+        <v>107664</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1.1994499E-2</v>
+      </c>
+      <c r="F14" s="26">
+        <v>1.1881544000000001E-2</v>
+      </c>
+      <c r="G14" s="17">
+        <v>166152.23906940501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3">
+        <v>107664</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="47">
+        <v>1.28367602798235E-3</v>
+      </c>
+      <c r="F15" s="26">
+        <v>4.37395977507672E-3</v>
+      </c>
+      <c r="G15" s="15">
+        <v>47408.631118216399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3">
+        <v>107664</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="26">
+        <v>1.7733412E-3</v>
+      </c>
+      <c r="F16" s="47">
+        <v>2.5828133999999999E-3</v>
+      </c>
+      <c r="G16" s="28">
+        <v>27954.4363803218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
+        <v>107664</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="26">
+        <v>1.3826785701155501E-3</v>
+      </c>
+      <c r="F17" s="26">
+        <v>3.3960793345194501E-3</v>
+      </c>
+      <c r="G17" s="15">
+        <v>37484.102634110299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
+        <v>107664</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="26">
+        <v>1.25604617118863E-2</v>
+      </c>
+      <c r="F18" s="26">
+        <v>1.23944525214001E-2</v>
+      </c>
+      <c r="G18" s="15">
+        <v>169953.452034899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3">
+        <v>107664</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="26">
+        <v>1.2547073202786301E-2</v>
+      </c>
+      <c r="F19" s="26">
+        <v>1.2383840238352499E-2</v>
+      </c>
+      <c r="G19" s="15">
+        <v>169953.41321840201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5EB18F-DD47-4D0A-BE6B-236FED585A96}">
+  <dimension ref="A1:G64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1525,514 +2081,611 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>13</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B2" s="3">
-        <v>11964</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="31">
-        <v>5.1725184999999998E-3</v>
-      </c>
-      <c r="F2" s="33">
-        <v>8.1965349999999996E-3</v>
-      </c>
-      <c r="G2" s="35">
-        <v>22296.402816004502</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="21">
-        <v>11964</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="21" t="s">
+        <v>107664</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="22">
-        <v>0.32657439999999999</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0.54549974000000001</v>
-      </c>
-      <c r="G3" s="24">
-        <v>22383.927926400898</v>
-      </c>
-      <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>13</v>
+      <c r="E2" s="25">
+        <v>0.75800749999999995</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0.74227019999999999</v>
+      </c>
+      <c r="G2" s="15">
+        <v>166153.589280374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3">
+        <v>107664</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="14">
+        <v>8.5135875691826304E-2</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.32636957411970702</v>
+      </c>
+      <c r="G3" s="15">
+        <v>47398.590473633398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="3">
-        <v>11964</v>
+        <v>107664</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="14">
-        <v>9.9521799999999997E-3</v>
-      </c>
-      <c r="F4" s="19">
-        <v>1.5262583E-2</v>
-      </c>
-      <c r="G4" s="24">
-        <v>23032.4017129569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3">
-        <v>11964</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="14">
-        <v>6.2728514309733502E-3</v>
-      </c>
-      <c r="F5" s="14">
-        <v>1.79807172140873E-2</v>
-      </c>
-      <c r="G5" s="23">
-        <v>30411.241400642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
-        <v>11964</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="31">
-        <v>3.2912924281752998E-3</v>
-      </c>
-      <c r="F6" s="31">
-        <v>9.4789996775099996E-3</v>
-      </c>
-      <c r="G6" s="23">
-        <v>30450.681569673401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="27">
-        <v>11964</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="D4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="28">
-        <v>0.21282695962886899</v>
-      </c>
-      <c r="F7" s="34">
-        <v>0.53248259036981405</v>
-      </c>
-      <c r="G7" s="29">
-        <v>30640.823163754001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="21">
-        <v>11964</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="33">
-        <v>2.8458098906740201E-3</v>
-      </c>
-      <c r="F8" s="31">
-        <v>1.1709544215670199E-2</v>
-      </c>
-      <c r="G8" s="17">
-        <v>38558.731395944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="21">
-        <v>11964</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="19">
-        <v>5.3962486116028597E-3</v>
-      </c>
-      <c r="F9" s="14">
-        <v>2.3095377807985401E-2</v>
-      </c>
-      <c r="G9" s="15">
-        <v>38586.483804305397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="21">
-        <v>11964</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="25">
-        <v>0.18443464065832399</v>
-      </c>
-      <c r="F10" s="22">
-        <v>0.64137395212286197</v>
-      </c>
-      <c r="G10" s="36">
-        <v>38596.230703666799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="21">
-        <v>11964</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0.74658270000000004</v>
-      </c>
-      <c r="F11" s="22">
-        <v>1.1032458999999999</v>
-      </c>
-      <c r="G11" s="36">
-        <v>53098.3565838586</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="21">
-        <v>11964</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1.0570960000000001E-2</v>
-      </c>
-      <c r="F12" s="14">
-        <v>1.2049193999999999E-2</v>
-      </c>
-      <c r="G12" s="23">
-        <v>53103.4783123292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27">
-        <v>11964</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="28">
-        <v>1.9822302999999999E-2</v>
-      </c>
-      <c r="F13" s="28">
-        <v>2.1200706999999999E-2</v>
-      </c>
-      <c r="G13" s="29">
-        <v>53113.466347932299</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="21">
-        <v>11964</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0.77969067534834302</v>
-      </c>
-      <c r="F14" s="22">
-        <v>1.1493596411833999</v>
-      </c>
-      <c r="G14" s="17">
-        <v>62484.526506161703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="21">
-        <v>11964</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0.78375289886160904</v>
-      </c>
-      <c r="F15" s="22">
-        <v>1.15194348754322</v>
-      </c>
-      <c r="G15" s="36">
-        <v>62484.808856981799</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="21">
-        <v>11964</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="32">
-        <v>1.13998144652704E-2</v>
-      </c>
-      <c r="F16" s="32">
-        <v>1.2965872816187799E-2</v>
-      </c>
-      <c r="G16" s="36">
-        <v>62485.424488272598</v>
-      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="21">
-        <v>11964</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="32">
-        <v>1.14600963614953E-2</v>
-      </c>
-      <c r="F17" s="32">
-        <v>1.30092636859517E-2</v>
-      </c>
-      <c r="G17" s="36">
-        <v>62485.717948557598</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="21">
-        <v>11964</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="22">
-        <v>2.16105085663389E-2</v>
-      </c>
-      <c r="F18" s="22">
-        <v>2.3071685865134101E-2</v>
-      </c>
-      <c r="G18" s="23">
-        <v>62552.1366451418</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="27">
-        <v>11964</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="28">
-        <v>2.1681548159559801E-2</v>
-      </c>
-      <c r="F19" s="28">
-        <v>2.3133775522522899E-2</v>
-      </c>
-      <c r="G19" s="29">
-        <v>62552.411214141903</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H19">
-    <sortCondition ref="G1:G19"/>
-  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/modelResult.xlsx
+++ b/modelResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\MultivariateRegression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BD43F8-A43A-4629-8C5C-8C4318010AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF88FD5-37AA-425C-AAB8-C62F2F5559CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0CE15CFB-29F1-4EED-86B0-B33767367CAE}"/>
+    <workbookView xWindow="10245" yWindow="1005" windowWidth="13260" windowHeight="14595" activeTab="1" xr2:uid="{0CE15CFB-29F1-4EED-86B0-B33767367CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1570,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FBF091-289E-4DFA-91E5-132EF87715B9}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/modelResult.xlsx
+++ b/modelResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\MultivariateRegression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF88FD5-37AA-425C-AAB8-C62F2F5559CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FECD35C-2C3A-471B-AE56-1D4433822DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="1005" windowWidth="13260" windowHeight="14595" activeTab="1" xr2:uid="{0CE15CFB-29F1-4EED-86B0-B33767367CAE}"/>
+    <workbookView xWindow="6210" yWindow="1005" windowWidth="13260" windowHeight="14595" activeTab="1" xr2:uid="{0CE15CFB-29F1-4EED-86B0-B33767367CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
     <numFmt numFmtId="176" formatCode="0.000000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +227,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -494,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,9 +589,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -601,9 +614,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -618,9 +628,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,7 +643,25 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1571,7 +1596,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1586,75 +1611,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>107664</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="36">
-        <v>0.75800749999999995</v>
-      </c>
-      <c r="F2" s="36">
-        <v>0.74227019999999999</v>
-      </c>
-      <c r="G2" s="37">
-        <v>166153.589280374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="41">
+        <v>0.360258054243491</v>
+      </c>
+      <c r="F2" s="49">
+        <v>0.36286301575832502</v>
+      </c>
+      <c r="G2" s="50">
+        <v>1941.1867270539401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="3">
         <v>107664</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="46">
-        <v>8.5135875691826304E-2</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0.32636957411970702</v>
-      </c>
-      <c r="G3" s="24">
-        <v>47398.590473633398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="48">
+        <v>7.30589152413512E-3</v>
+      </c>
+      <c r="F3" s="48">
+        <v>7.3679967355844899E-3</v>
+      </c>
+      <c r="G3" s="27">
+        <v>1941.18672720771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>32</v>
       </c>
@@ -1662,22 +1687,22 @@
         <v>107664</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="40">
-        <v>0.12945092</v>
-      </c>
-      <c r="F4" s="46">
-        <v>0.18967912000000001</v>
-      </c>
-      <c r="G4" s="45">
-        <v>28369.086642119499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E4" s="47">
+        <v>9.0354649150953502E-3</v>
+      </c>
+      <c r="F4" s="47">
+        <v>9.11164608507848E-3</v>
+      </c>
+      <c r="G4" s="42">
+        <v>1941.1867272086099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>32</v>
       </c>
@@ -1685,45 +1710,45 @@
         <v>107664</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="40">
-        <v>0.82387553780705303</v>
-      </c>
-      <c r="F5" s="40">
-        <v>0.79911616016550802</v>
+        <v>22</v>
+      </c>
+      <c r="E5" s="43">
+        <v>0.36023994674606302</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.36288115334808202</v>
       </c>
       <c r="G5" s="24">
-        <v>169964.25170592801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1941.29348288962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="3">
         <v>107664</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="40">
-        <v>0.82175309366026095</v>
-      </c>
-      <c r="F6" s="40">
-        <v>0.79730821967809296</v>
-      </c>
-      <c r="G6" s="24">
-        <v>169964.23661778701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="48">
+        <v>7.3055021446009798E-3</v>
+      </c>
+      <c r="F6" s="48">
+        <v>7.3682665270568904E-3</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1941.2934830568799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>32</v>
       </c>
@@ -1731,45 +1756,45 @@
         <v>107664</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="41">
-        <v>9.43029091797222E-2</v>
-      </c>
-      <c r="F7" s="41">
-        <v>0.248258122184601</v>
-      </c>
-      <c r="G7" s="42">
-        <v>37710.789606547798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="46">
+        <v>9.0349808196241999E-3</v>
+      </c>
+      <c r="F7" s="46">
+        <v>9.1118384877799507E-3</v>
+      </c>
+      <c r="G7" s="39">
+        <v>1941.29348305748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="34">
         <v>107664</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>26</v>
+      <c r="C8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="44">
-        <v>2.0597575E-2</v>
+        <v>8.4750299999999997E-3</v>
       </c>
       <c r="F8" s="44">
-        <v>2.0455444E-2</v>
-      </c>
-      <c r="G8" s="37">
-        <v>166152.23751217799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+        <v>8.5392669999999997E-3</v>
+      </c>
+      <c r="G8" s="35">
+        <v>2238.3454805164702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>32</v>
       </c>
@@ -1777,22 +1802,22 @@
         <v>107664</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="46">
-        <v>2.4478432525290202E-3</v>
-      </c>
-      <c r="F9" s="40">
-        <v>8.4917550735215605E-3</v>
+      <c r="E9" s="45">
+        <v>1.0821459E-2</v>
+      </c>
+      <c r="F9" s="45">
+        <v>1.0879727E-2</v>
       </c>
       <c r="G9" s="24">
-        <v>47700.698362039097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2301.75534116873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>32</v>
       </c>
@@ -1803,42 +1828,42 @@
         <v>17</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="40">
-        <v>3.4074312999999999E-3</v>
-      </c>
-      <c r="F10" s="46">
-        <v>4.9292069999999997E-3</v>
-      </c>
-      <c r="G10" s="45">
-        <v>27820.342309071999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="E10" s="38">
+        <v>0.44024180000000002</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0.44510465999999999</v>
+      </c>
+      <c r="G10" s="24">
+        <v>2376.66026789324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="3">
         <v>107664</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="40">
-        <v>2.6430267651863602E-3</v>
-      </c>
-      <c r="F11" s="40">
-        <v>6.5287496557286202E-3</v>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="48">
+        <v>1.116251E-2</v>
+      </c>
+      <c r="F11" s="48">
+        <v>1.1199964E-2</v>
       </c>
       <c r="G11" s="24">
-        <v>37494.890921371501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="39" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2459.1286060154798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>32</v>
       </c>
@@ -1846,22 +1871,22 @@
         <v>107664</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="40">
-        <v>2.15125487910286E-2</v>
-      </c>
-      <c r="F12" s="40">
-        <v>2.13013497902582E-2</v>
+        <v>22</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.80881137000000003</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0.81627786000000002</v>
       </c>
       <c r="G12" s="24">
-        <v>169987.468391481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2459.1286345251001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>32</v>
       </c>
@@ -1869,19 +1894,19 @@
         <v>107664</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="41">
-        <v>2.1493549592458399E-2</v>
-      </c>
-      <c r="F13" s="41">
-        <v>2.1287739361033699E-2</v>
-      </c>
-      <c r="G13" s="42">
-        <v>169987.46876627</v>
+        <v>26</v>
+      </c>
+      <c r="E13" s="46">
+        <v>1.6157385E-2</v>
+      </c>
+      <c r="F13" s="46">
+        <v>1.6278377E-2</v>
+      </c>
+      <c r="G13" s="39">
+        <v>2459.1286517438398</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1891,112 +1916,112 @@
       <c r="B14" s="3">
         <v>107664</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
+      <c r="C14" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="26">
-        <v>1.1994499E-2</v>
-      </c>
-      <c r="F14" s="26">
-        <v>1.1881544000000001E-2</v>
+        <v>30</v>
+      </c>
+      <c r="E14" s="48">
+        <v>1.16483477800121E-2</v>
+      </c>
+      <c r="F14" s="48">
+        <v>1.16431070438848E-2</v>
       </c>
       <c r="G14" s="17">
-        <v>166152.23906940501</v>
+        <v>2514.0194257203402</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="20">
         <v>107664</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="47">
-        <v>1.28367602798235E-3</v>
-      </c>
-      <c r="F15" s="26">
-        <v>4.37395977507672E-3</v>
-      </c>
-      <c r="G15" s="15">
-        <v>47408.631118216399</v>
+      <c r="C15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="45">
+        <v>1.6881642182099098E-2</v>
+      </c>
+      <c r="F15" s="45">
+        <v>1.6983584903373899E-2</v>
+      </c>
+      <c r="G15" s="24">
+        <v>2515.9924724278198</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="20">
         <v>107664</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="26">
-        <v>1.7733412E-3</v>
-      </c>
-      <c r="F16" s="47">
-        <v>2.5828133999999999E-3</v>
-      </c>
-      <c r="G16" s="28">
-        <v>27954.4363803218</v>
+      <c r="C16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="45">
+        <v>1.6918462827277402E-2</v>
+      </c>
+      <c r="F16" s="45">
+        <v>1.7014265373446601E-2</v>
+      </c>
+      <c r="G16" s="24">
+        <v>2516.06627573283</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="20">
         <v>107664</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="26">
-        <v>1.3826785701155501E-3</v>
-      </c>
-      <c r="F17" s="26">
-        <v>3.3960793345194501E-3</v>
-      </c>
-      <c r="G17" s="15">
-        <v>37484.102634110299</v>
+      <c r="C17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="38">
+        <v>0.87430243038075095</v>
+      </c>
+      <c r="F17" s="38">
+        <v>0.88091403449727801</v>
+      </c>
+      <c r="G17" s="24">
+        <v>2517.5103513589102</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="20">
         <v>107664</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="26">
-        <v>1.25604617118863E-2</v>
-      </c>
-      <c r="F18" s="26">
-        <v>1.23944525214001E-2</v>
-      </c>
-      <c r="G18" s="15">
-        <v>169953.452034899</v>
+      <c r="D18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="38">
+        <v>0.87544878743704102</v>
+      </c>
+      <c r="F18" s="38">
+        <v>0.88183806653697405</v>
+      </c>
+      <c r="G18" s="24">
+        <v>2518.9613413784</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -2012,33 +2037,36 @@
       <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="48">
         <v>1.2547073202786301E-2</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="48">
         <v>1.2383840238352499E-2</v>
       </c>
       <c r="G19" s="15">
-        <v>169953.41321840201</v>
+        <v>2523.3638643269301</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D20" s="3"/>
-      <c r="G20" s="27"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="27"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G22" s="27"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G23" s="27"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G24" s="27"/>
+      <c r="G24" s="26"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G19">
+    <sortCondition ref="G1:G19"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
